--- a/biology/Biochimie/2,4-Diénoyl-CoA_réductase/2,4-Diénoyl-CoA_réductase.xlsx
+++ b/biology/Biochimie/2,4-Diénoyl-CoA_réductase/2,4-Diénoyl-CoA_réductase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2,4-Di%C3%A9noyl-CoA_r%C3%A9ductase</t>
+          <t>2,4-Diénoyl-CoA_réductase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La 2,4-diénoyl-CoA réductase (DECR1) est une oxydoréductase qui catalyse la réaction :
 trans,trans-2,3,4,5-tétradéshydroacyl-CoA + NADPH  
         ⇌
     {\displaystyle \rightleftharpoons }
   trans-2,3-didéshydroacyl-CoA + NADP+.
-Il s'agit d'une enzyme accessoire de la β-oxydation et du métabolisme des esters énoyl-CoA à acides gras polyinsaturés. Avec la dodécénoyl-CoA isomérase et la Δ3,5-Δ2,4-diénoyl-CoA isomérase, elle permet de métaboliser les acides gras polyinsaturés cis et trans. C'est l'enzyme limitante dans ce flux auxiliaire. Elle peut réduire avec la même efficacité à la fois les chaînes 2-trans,4-cis et 2-trans,4-trans[2] ainsi que les doubles liaisons sur les atomes de carbone aux positions impaires[3] ; l'origine de cette absence de stéréospécificité n'est pas connue à l'heure actuelle.
+Il s'agit d'une enzyme accessoire de la β-oxydation et du métabolisme des esters énoyl-CoA à acides gras polyinsaturés. Avec la dodécénoyl-CoA isomérase et la Δ3,5-Δ2,4-diénoyl-CoA isomérase, elle permet de métaboliser les acides gras polyinsaturés cis et trans. C'est l'enzyme limitante dans ce flux auxiliaire. Elle peut réduire avec la même efficacité à la fois les chaînes 2-trans,4-cis et 2-trans,4-trans ainsi que les doubles liaisons sur les atomes de carbone aux positions impaires ; l'origine de cette absence de stéréospécificité n'est pas connue à l'heure actuelle.
 </t>
         </is>
       </c>
